--- a/src/main/resources/excel/export/productList.xlsx
+++ b/src/main/resources/excel/export/productList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
   <si>
     <t>Mã sản phẩm</t>
   </si>
@@ -186,12 +186,6 @@
   </si>
   <si>
     <t>iPhone 16 SE</t>
-  </si>
-  <si>
-    <t>iPhone 15 Pro Max</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S24 Ultra</t>
   </si>
 </sst>
 </file>
@@ -236,7 +230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -956,40 +950,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n" s="0">
-        <v>114.0</v>
-      </c>
-      <c r="B43" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E43" t="n" s="0">
-        <v>2.999E7</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n" s="0">
-        <v>115.0</v>
-      </c>
-      <c r="B44" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="C44" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="E44" t="n" s="0">
-        <v>2.75E7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
